--- a/audio/index.xlsx
+++ b/audio/index.xlsx
@@ -293,7 +293,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +315,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,46 +751,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,97 +805,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,7 +1257,9 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>

--- a/audio/index.xlsx
+++ b/audio/index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>文件</t>
   </si>
@@ -1259,7 +1259,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1665,6 +1665,9 @@
       </c>
       <c r="F20" t="s">
         <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
